--- a/TabExcel.xlsx
+++ b/TabExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antse\Documents\MSc_PSB\Cours\Programmation R et Maths BigDATA\Travaux supplémentaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A566172-9CBE-409A-B567-862D254C8570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76718388-80DA-4D4E-AD47-F5E182DC1376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74175D8B-8BF8-46FB-947D-D7DB09307FA8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74175D8B-8BF8-46FB-947D-D7DB09307FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauExport" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="212">
   <si>
     <t>ABBES</t>
   </si>
@@ -223,15 +223,6 @@
     <t>Extraire le contenu d'un pdf avec R</t>
   </si>
   <si>
-    <t>GOMES</t>
-  </si>
-  <si>
-    <t>Romain</t>
-  </si>
-  <si>
-    <t>r_gomes1@stu-psbedu.paris</t>
-  </si>
-  <si>
     <t>GUIGON</t>
   </si>
   <si>
@@ -277,18 +268,6 @@
     <t>s_kanlanfeyi@stu-psbedu.paris</t>
   </si>
   <si>
-    <t>Dataset et MNIST et Fashion</t>
-  </si>
-  <si>
-    <t>KOUAME</t>
-  </si>
-  <si>
-    <t>Ruben</t>
-  </si>
-  <si>
-    <t>r_kouame@stu-psbedu.paris</t>
-  </si>
-  <si>
     <t>LAMTI</t>
   </si>
   <si>
@@ -337,24 +316,6 @@
     <t>c_mazzucato@stu-psbedu.paris</t>
   </si>
   <si>
-    <t>MEDJKOUNE</t>
-  </si>
-  <si>
-    <t>Sofiane</t>
-  </si>
-  <si>
-    <t>s_medjkoune@stu-psbedu.paris</t>
-  </si>
-  <si>
-    <t>MORSLI</t>
-  </si>
-  <si>
-    <t>Thamila</t>
-  </si>
-  <si>
-    <t>t_morsli@stu-psbedu.paris</t>
-  </si>
-  <si>
     <t>PALAY</t>
   </si>
   <si>
@@ -430,18 +391,9 @@
     <t>n_zoumanigui@stu-psbedu.paris</t>
   </si>
   <si>
-    <t>ggplot2 / ggups / statsbombR</t>
-  </si>
-  <si>
-    <t>Plotlly / Lubridate</t>
-  </si>
-  <si>
     <t>Sp / Sf</t>
   </si>
   <si>
-    <t>Ggplot2 / Rpart</t>
-  </si>
-  <si>
     <t>Janitor / Plumber</t>
   </si>
   <si>
@@ -451,54 +403,9 @@
     <t>bdpar / dabr / dm</t>
   </si>
   <si>
-    <t>dplyr / ggplot2 / Leaflet</t>
-  </si>
-  <si>
-    <t>evir / evd / R.minner / Regtest / graphics</t>
-  </si>
-  <si>
     <t>Ggplot2 / Shiny / FactoMineR</t>
   </si>
   <si>
-    <t>Groupe 2</t>
-  </si>
-  <si>
-    <t>Groupe 1</t>
-  </si>
-  <si>
-    <t>Groupe 3</t>
-  </si>
-  <si>
-    <t>Groupe 4</t>
-  </si>
-  <si>
-    <t>Groupe 5</t>
-  </si>
-  <si>
-    <t>Groupe 6</t>
-  </si>
-  <si>
-    <t>Groupe 7</t>
-  </si>
-  <si>
-    <t>Groupe 8</t>
-  </si>
-  <si>
-    <t>Groupe 9</t>
-  </si>
-  <si>
-    <t>Groupe 10</t>
-  </si>
-  <si>
-    <t>Groupe 11</t>
-  </si>
-  <si>
-    <t>Groupe 12</t>
-  </si>
-  <si>
-    <t>Groupe 13</t>
-  </si>
-  <si>
     <t>Shiny</t>
   </si>
   <si>
@@ -547,9 +454,6 @@
     <t>T-AUF</t>
   </si>
   <si>
-    <t>AkramBensale mPSB</t>
-  </si>
-  <si>
     <t>Salah1920</t>
   </si>
   <si>
@@ -709,17 +613,75 @@
     <t xml:space="preserve">Compromis biais variance </t>
   </si>
   <si>
-    <t>Actions</t>
-  </si>
-  <si>
     <t>Github_ID</t>
+  </si>
+  <si>
+    <t>Tests statistiques en R</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Data.table / Parallel / network3D</t>
+  </si>
+  <si>
+    <t>Ggplot2 , Flexdashboard, Tenserflow</t>
+  </si>
+  <si>
+    <t>RPART / GGPLOT / gdata</t>
+  </si>
+  <si>
+    <t>AkramBensalemPSB</t>
+  </si>
+  <si>
+    <t>Stringr</t>
+  </si>
+  <si>
+    <t>Sparkr</t>
+  </si>
+  <si>
+    <t>MNIST et Fashion</t>
+  </si>
+  <si>
+    <t>dplyr / Leaflet</t>
+  </si>
+  <si>
+    <t>evir / evd / R.minner / graphics</t>
+  </si>
+  <si>
+    <t>dply / tidyr / ggplot2</t>
+  </si>
+  <si>
+    <t>dplyr / rcharts / prophet</t>
+  </si>
+  <si>
+    <t>Xgboost / e1071 / RandomForest</t>
+  </si>
+  <si>
+    <t>Ggplot2 / Rpart/ Esquisse</t>
+  </si>
+  <si>
+    <t>Ggplot2 / Rpart / Esquisse</t>
+  </si>
+  <si>
+    <t>ggplot2 / statsbombR</t>
+  </si>
+  <si>
+    <t>plymr / rmr2 / sparklyr</t>
+  </si>
+  <si>
+    <t>RPART / GGPLOT / PivotalR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +709,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -762,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -798,18 +780,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1122,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F9F99A-652C-4331-BF59-57FDC3BF945A}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,38 +1136,38 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>210</v>
+        <v>175</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>209</v>
+        <v>176</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1181,25 +1181,27 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>143</v>
+      <c r="H2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1208,22 +1210,22 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>150</v>
+        <v>207</v>
+      </c>
+      <c r="I3" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1237,20 +1239,22 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>149</v>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1264,20 +1268,22 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>149</v>
+      <c r="H5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1291,22 +1297,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>144</v>
+        <v>203</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1320,14 +1326,20 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>200</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>143</v>
+      <c r="G7" s="6">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1341,16 +1353,20 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>143</v>
+      <c r="G8" s="6">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1364,17 +1380,21 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="G9" s="6">
         <v>2</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1387,13 +1407,21 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="6">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1406,22 +1434,22 @@
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>142</v>
+        <v>202</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1435,22 +1463,22 @@
         <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1464,22 +1492,22 @@
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="5">
         <v>8</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="I13" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1493,22 +1521,22 @@
         <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="5">
         <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>151</v>
+        <v>210</v>
+      </c>
+      <c r="I14" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1522,7 +1550,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
@@ -1530,14 +1558,14 @@
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="5">
         <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
+      </c>
+      <c r="I15" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1551,22 +1579,22 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="5">
         <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
+      </c>
+      <c r="I16" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,22 +1608,22 @@
         <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="5">
         <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
+      </c>
+      <c r="I17" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1609,22 +1637,22 @@
         <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5">
         <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>142</v>
+        <v>202</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1638,19 +1666,23 @@
         <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="6">
         <v>14</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1663,19 +1695,23 @@
         <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="6">
         <v>15</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1688,7 +1724,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>61</v>
@@ -1696,14 +1732,14 @@
       <c r="F21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="5">
         <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
+      </c>
+      <c r="I21" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1716,12 +1752,22 @@
       <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="6">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1734,42 +1780,50 @@
         <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>17</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="6">
+        <v>18</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>18</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="2"/>
+      <c r="D24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1782,151 +1836,167 @@
         <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="6">
+        <v>18</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1">
-        <v>9</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="2">
-        <v>18</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>19</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="1">
-        <v>12</v>
+      <c r="G29" s="5">
+        <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
+      </c>
+      <c r="I29" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="F30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="1">
-        <v>19</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>142</v>
+      <c r="G30" s="5">
+        <v>20</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1940,326 +2010,250 @@
         <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="1">
-        <v>4</v>
+      <c r="G31" s="5">
+        <v>5</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>148</v>
+        <v>195</v>
+      </c>
+      <c r="I31" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1">
-        <v>20</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>153</v>
+      <c r="D32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="6">
+        <v>21</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I32" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1">
-        <v>5</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>145</v>
+        <v>100</v>
+      </c>
+      <c r="G33" s="5">
+        <v>22</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="5">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="2">
-        <v>21</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="6">
+        <v>24</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="1">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1">
-        <v>10</v>
+        <v>185</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5">
+        <v>23</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>146</v>
+        <v>203</v>
+      </c>
+      <c r="I38" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="1">
-        <v>3</v>
+      <c r="G39" s="5">
+        <v>15</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="1">
-        <v>13</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="1">
-        <v>23</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="1">
-        <v>15</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>144</v>
+        <v>203</v>
+      </c>
+      <c r="I39" s="5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
